--- a/design/cycling PRD.xlsx
+++ b/design/cycling PRD.xlsx
@@ -9,18 +9,18 @@
   <sheets>
     <sheet name="Revisions" sheetId="4" r:id="rId1"/>
     <sheet name="All" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="行车安全" sheetId="2" r:id="rId3"/>
+    <sheet name="健康绿色锻炼" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Devices</t>
   </si>
@@ -49,94 +49,10 @@
     <t>Comments/Notes:</t>
   </si>
   <si>
-    <t>HEALTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime/GPS auto adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopwatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">lap </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRAINING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fit document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geosms to send GPS location data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cycling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>gps log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activity log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>lap</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脂肪自动测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -165,6 +81,182 @@
   </si>
   <si>
     <t>Create it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行车安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行车路况实时监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键求救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜晚警示车灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康绿色锻炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时速度检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气悬浮颗粒检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外线强度检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气气压检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳能充电，能给手机和单车侣充电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过内置震动传感器完成，需要研究现有的单车报警器原理，并选型传感器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置超声传感器，通过算法探测骑行方向后方的车辆或者人员移动，达到主动预警的目的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过单车伴侣上的报警按钮激活内置Android phone内的SMS功能，把骑行者当前的坐标发送到亲属手机内，向对方求救。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过车轮上的个性LED灯达到，个性警示和照明作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ANT+ 连接心跳带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过内置温度传感器，监测环境温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过内置湿度传感器，监测环境湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过内置空气颗粒传感器，监测悬浮颗粒浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过内置紫外线强度传感器，监测紫外线强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过大气压力传感器，监测大气压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子罗盘指示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过手机内置电子罗盘，专递给单车伴侣表盘实时显示方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过特别工业设计的操控系统，可以让用户在骑行过程中很容易操作单车伴侣的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别加入两只音箱，支持报警和喇叭功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别加入太阳能充电功能，在户外骑行随时充电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过手机内的GPS功能，保存成专业fit格式的档案，并支持按圈训练计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过USB连接线和单车伴侣连接，完成通信和控制空能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过手机内加倾角传感器，完成坡度计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过车轮上的霍尔传感器，实时计算行进速度，平均速度，圈速度，最高速度，加速度等速度参数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android phone ADB 通信模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train， GPS Log, 保存成fit档，支持LAP功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成单车属性设定，完成ANT+设备搜索，完成报警号码设定，完成单车伴侣firmware升级等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,15 +298,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -258,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,32 +362,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +697,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -620,53 +708,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>21</v>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
         <v>40843</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>29</v>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -682,125 +770,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="29.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="12.875" style="5" customWidth="1"/>
+    <col min="4" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="40.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="42.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="44.25" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6" t="s">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="33">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
+      <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="14" customFormat="1" ht="33">
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="68.25" customHeight="1">
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="14" customFormat="1" ht="33">
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="33">
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="33">
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="16.5">
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="16.5">
+      <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="16.5">
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="16.5">
+      <c r="C12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="16.5">
+      <c r="C13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="16.5">
+      <c r="C14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="16.5">
+      <c r="C15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="33">
+      <c r="C16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" s="14" customFormat="1" ht="16.5">
+      <c r="C17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" s="14" customFormat="1" ht="16.5">
+      <c r="C18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" s="14" customFormat="1" ht="33">
+      <c r="C19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" s="14" customFormat="1" ht="33">
+      <c r="C20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" s="14" customFormat="1" ht="33">
+      <c r="C21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" s="14" customFormat="1" ht="16.5"/>
+    <row r="23" spans="3:8" s="14" customFormat="1" ht="16.5"/>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
-  <sortState ref="A3:H9">
-    <sortCondition ref="B3:B9"/>
+  <sortState ref="A4:I21">
+    <sortCondition ref="C4:C21"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2">
